--- a/experiment_results/worst_case/BankAccountTP/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/1wise/0.8_worst_case.xlsx
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -503,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -695,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -759,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -868,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1060,7 +1060,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1201,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1233,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1361,7 +1361,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1425,7 +1425,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1457,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1566,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1598,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1854,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1963,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2091,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2123,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2155,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2328,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2360,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2392,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2424,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2456,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2488,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2520,7 +2520,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2661,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2789,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2821,7 +2821,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2885,7 +2885,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2917,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3026,7 +3026,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3058,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3186,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3218,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3250,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3314,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -3423,7 +3423,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3519,7 +3519,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3551,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3583,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3615,7 +3615,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -3647,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3679,7 +3679,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3756,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3788,7 +3788,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3852,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3916,7 +3916,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3948,7 +3948,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3980,7 +3980,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4012,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4044,7 +4044,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4121,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4153,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -4185,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4249,7 +4249,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4281,7 +4281,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -4313,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -4377,7 +4377,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4409,7 +4409,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -4518,7 +4518,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -4614,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -4646,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -4678,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -4710,7 +4710,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -4742,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -4774,7 +4774,7 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -4851,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4874,16 +4874,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4970,16 +4970,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -5002,16 +5002,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -5034,16 +5034,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -5066,16 +5066,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -5216,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5239,16 +5239,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -5280,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5335,16 +5335,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -5367,16 +5367,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -5399,16 +5399,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -5431,16 +5431,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5495,16 +5495,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -5581,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -5613,7 +5613,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -5741,7 +5741,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -5773,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5805,7 +5805,7 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5869,7 +5869,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>17</v>

--- a/experiment_results/worst_case/BankAccountTP/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/1wise/0.8_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="20">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -2972,6 +2974,736 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>63</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>63</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>63</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>63</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>63</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>63</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>48</v>
+      </c>
+      <c r="L2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>48</v>
+      </c>
+      <c r="L7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>76</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>48</v>
+      </c>
+      <c r="L9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
@@ -4112,13 +4844,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -4150,7 +4882,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -4208,13 +4940,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -4246,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -4272,13 +5004,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -4304,13 +5036,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -4342,7 +5074,7 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>21</v>
@@ -4368,13 +5100,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -4400,13 +5132,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>20</v>

--- a/experiment_results/worst_case/BankAccountTP/1wise/0.8_worst_case.xlsx
+++ b/experiment_results/worst_case/BankAccountTP/1wise/0.8_worst_case.xlsx
@@ -473,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -496,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -592,16 +592,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -624,16 +624,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -656,16 +656,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -688,16 +688,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -720,16 +720,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -752,16 +752,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -957,16 +957,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -989,16 +989,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1053,16 +1053,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1085,7 +1085,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1117,16 +1117,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1226,16 +1226,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1322,16 +1322,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1354,16 +1354,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1418,16 +1418,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1450,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1482,16 +1482,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1591,16 +1591,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1687,16 +1687,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1719,16 +1719,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1783,16 +1783,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1815,7 +1815,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1847,16 +1847,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1956,16 +1956,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2052,16 +2052,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2084,16 +2084,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2119,13 +2119,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2148,16 +2148,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2212,16 +2212,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2298,7 +2298,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2321,16 +2321,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2385,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2417,16 +2417,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2449,16 +2449,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2481,16 +2481,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2513,16 +2513,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2545,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2577,16 +2577,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2686,16 +2686,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2782,16 +2782,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2814,16 +2814,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -2846,16 +2846,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -2878,16 +2878,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -2910,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2942,16 +2942,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -3019,16 +3019,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -3051,16 +3051,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -3083,16 +3083,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3115,16 +3115,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -3147,16 +3147,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3179,16 +3179,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -3211,16 +3211,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3243,16 +3243,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -3275,16 +3275,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -3307,16 +3307,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -3384,16 +3384,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3416,16 +3416,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3483,13 +3483,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3512,16 +3512,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -3544,16 +3544,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -3576,16 +3576,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -3608,16 +3608,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -3640,16 +3640,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3672,16 +3672,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -3758,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -3781,16 +3781,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -3845,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3877,16 +3877,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3909,16 +3909,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -3941,16 +3941,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3973,16 +3973,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4005,7 +4005,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4037,16 +4037,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4123,7 +4123,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4146,16 +4146,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4210,7 +4210,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4219,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4242,16 +4242,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4274,16 +4274,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -4306,16 +4306,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4338,16 +4338,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4370,7 +4370,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4379,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4402,16 +4402,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4488,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4511,16 +4511,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -4552,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4607,16 +4607,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4639,16 +4639,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -4680,7 +4680,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -4703,16 +4703,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -4735,16 +4735,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -4767,16 +4767,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4853,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -4876,16 +4876,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4940,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4972,16 +4972,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -5004,16 +5004,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -5045,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5068,16 +5068,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -5100,7 +5100,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5132,16 +5132,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>16</v>
@@ -5209,16 +5209,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -5241,16 +5241,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -5273,16 +5273,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -5305,16 +5305,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -5337,16 +5337,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -5369,16 +5369,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -5401,16 +5401,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -5433,16 +5433,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -5465,16 +5465,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -5497,16 +5497,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>32</v>
@@ -5574,16 +5574,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5606,16 +5606,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -5647,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5673,13 +5673,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5702,16 +5702,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -5734,16 +5734,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -5766,16 +5766,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -5798,16 +5798,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -5830,16 +5830,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5862,16 +5862,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -5939,16 +5939,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -5971,16 +5971,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>46</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6038,13 +6038,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6067,16 +6067,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>46</v>
@@ -6099,16 +6099,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>48</v>
@@ -6131,16 +6131,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>29</v>
@@ -6163,16 +6163,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -6195,16 +6195,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6227,16 +6227,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>48</v>
@@ -6313,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -6336,16 +6336,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>8</v>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6400,7 +6400,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6432,16 +6432,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -6464,16 +6464,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -6496,16 +6496,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6528,16 +6528,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -6560,7 +6560,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6569,7 +6569,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -6592,16 +6592,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>17</v>
